--- a/data/COVID-19_Ishikawa.xlsx
+++ b/data/COVID-19_Ishikawa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k-z/GitHub/BasicStatisticsUsingExcel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EAFD6DFA-AA30-7445-A69D-B9906C00944A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77CA617-10CE-B24B-B167-5EFEA5E3DAEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID-19_Ishikawa" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="31">
   <si>
     <t>公表日</t>
   </si>
@@ -111,11 +111,14 @@
   <si>
     <t>宝達志水町</t>
   </si>
+  <si>
+    <t>10 - 19</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -596,7 +599,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -951,10 +954,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1002,8 +1007,8 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
-        <v>44488</v>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1172,8 +1177,8 @@
       <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="2">
-        <v>44488</v>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -1410,8 +1415,8 @@
       <c r="C27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="2">
-        <v>44488</v>
+      <c r="D27" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -3637,8 +3642,8 @@
       <c r="C158" t="s">
         <v>20</v>
       </c>
-      <c r="D158" s="2">
-        <v>44488</v>
+      <c r="D158" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E158" t="s">
         <v>8</v>
